--- a/Lab1/lab1.xlsx
+++ b/Lab1/lab1.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8A794A-D304-4DB7-8726-887583503611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25E852-6C9C-4646-978F-C1CADFD1080A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page 6" sheetId="2" r:id="rId1"/>
     <sheet name="page 5" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'page 6'!$C$3:$C$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'page 6'!$C$3:$C$26</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -252,11 +248,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,20 +538,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD991E4-5EEC-4881-B86A-2BA0D26A115B}">
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:6" ht="56.7" customHeight="1">
       <c r="B2" s="1" t="s">
@@ -796,6 +792,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -803,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -824,56 +821,56 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:5" ht="15.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" ht="15.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="15.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" ht="15.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" ht="15.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="15.3">
       <c r="B12" s="7" t="s">
@@ -884,56 +881,56 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" ht="15.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" ht="15.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" ht="15.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" ht="15.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" ht="15.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Lab1/lab1.xlsx
+++ b/Lab1/lab1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25E852-6C9C-4646-978F-C1CADFD1080A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F69B04-C1B6-4862-9A50-E648368896E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page 6" sheetId="2" r:id="rId1"/>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD991E4-5EEC-4881-B86A-2BA0D26A115B}">
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/Lab1/lab1.xlsx
+++ b/Lab1/lab1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F69B04-C1B6-4862-9A50-E648368896E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F6A20-57DB-44B2-B0C0-A8067BE308EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
